--- a/natmiOut/OldD2/LR-pairs_lrc2p/Dkk2-Kremen1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Dkk2-Kremen1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.391348637191954</v>
+        <v>0.398441</v>
       </c>
       <c r="H2">
-        <v>0.391348637191954</v>
+        <v>0.796882</v>
       </c>
       <c r="I2">
-        <v>0.09811064855147385</v>
+        <v>0.08945363909080989</v>
       </c>
       <c r="J2">
-        <v>0.09811064855147385</v>
+        <v>0.06146862341190577</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.39043524080262</v>
+        <v>6.4984935</v>
       </c>
       <c r="N2">
-        <v>6.39043524080262</v>
+        <v>12.996987</v>
       </c>
       <c r="O2">
-        <v>0.1566756329956943</v>
+        <v>0.136717006960842</v>
       </c>
       <c r="P2">
-        <v>0.1566756329956943</v>
+        <v>0.1171455833533661</v>
       </c>
       <c r="Q2">
-        <v>2.500888122551542</v>
+        <v>2.5892662486335</v>
       </c>
       <c r="R2">
-        <v>2.500888122551542</v>
+        <v>10.357064994534</v>
       </c>
       <c r="S2">
-        <v>0.01537154796542026</v>
+        <v>0.01222983379825091</v>
       </c>
       <c r="T2">
-        <v>0.01537154796542026</v>
+        <v>0.007200777747516081</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.391348637191954</v>
+        <v>0.398441</v>
       </c>
       <c r="H3">
-        <v>0.391348637191954</v>
+        <v>0.796882</v>
       </c>
       <c r="I3">
-        <v>0.09811064855147385</v>
+        <v>0.08945363909080989</v>
       </c>
       <c r="J3">
-        <v>0.09811064855147385</v>
+        <v>0.06146862341190577</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.58430920724413</v>
+        <v>7.026005</v>
       </c>
       <c r="N3">
-        <v>6.58430920724413</v>
+        <v>21.078015</v>
       </c>
       <c r="O3">
-        <v>0.1614288814473278</v>
+        <v>0.1478149319518302</v>
       </c>
       <c r="P3">
-        <v>0.1614288814473278</v>
+        <v>0.1899822138089391</v>
       </c>
       <c r="Q3">
-        <v>2.576760435105425</v>
+        <v>2.799448458205</v>
       </c>
       <c r="R3">
-        <v>2.576760435105425</v>
+        <v>16.79669074923</v>
       </c>
       <c r="S3">
-        <v>0.01583789225373632</v>
+        <v>0.01322258357505164</v>
       </c>
       <c r="T3">
-        <v>0.01583789225373632</v>
+        <v>0.01167794515558184</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.391348637191954</v>
+        <v>0.398441</v>
       </c>
       <c r="H4">
-        <v>0.391348637191954</v>
+        <v>0.796882</v>
       </c>
       <c r="I4">
-        <v>0.09811064855147385</v>
+        <v>0.08945363909080989</v>
       </c>
       <c r="J4">
-        <v>0.09811064855147385</v>
+        <v>0.06146862341190577</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.0308932923012</v>
+        <v>2.048527</v>
       </c>
       <c r="N4">
-        <v>2.0308932923012</v>
+        <v>6.145581</v>
       </c>
       <c r="O4">
-        <v>0.04979183422223932</v>
+        <v>0.04309744714193724</v>
       </c>
       <c r="P4">
-        <v>0.04979183422223932</v>
+        <v>0.05539188977340388</v>
       </c>
       <c r="Q4">
-        <v>0.7947873222243553</v>
+        <v>0.8162171464069999</v>
       </c>
       <c r="R4">
-        <v>0.7947873222243553</v>
+        <v>4.897302878442</v>
       </c>
       <c r="S4">
-        <v>0.00488510914811137</v>
+        <v>0.003855223482370111</v>
       </c>
       <c r="T4">
-        <v>0.00488510914811137</v>
+        <v>0.003404863212555157</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.391348637191954</v>
+        <v>0.398441</v>
       </c>
       <c r="H5">
-        <v>0.391348637191954</v>
+        <v>0.796882</v>
       </c>
       <c r="I5">
-        <v>0.09811064855147385</v>
+        <v>0.08945363909080989</v>
       </c>
       <c r="J5">
-        <v>0.09811064855147385</v>
+        <v>0.06146862341190577</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.04505941887779</v>
+        <v>3.046790666666667</v>
       </c>
       <c r="N5">
-        <v>3.04505941887779</v>
+        <v>9.140372000000001</v>
       </c>
       <c r="O5">
-        <v>0.07465635656801649</v>
+        <v>0.0640991794148744</v>
       </c>
       <c r="P5">
-        <v>0.07465635656801649</v>
+        <v>0.08238480272441405</v>
       </c>
       <c r="Q5">
-        <v>1.191679853746346</v>
+        <v>1.213966320017333</v>
       </c>
       <c r="R5">
-        <v>1.191679853746346</v>
+        <v>7.283797920104001</v>
       </c>
       <c r="S5">
-        <v>0.007324583561378182</v>
+        <v>0.005733904861395246</v>
       </c>
       <c r="T5">
-        <v>0.007324583561378182</v>
+        <v>0.005064080413531156</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.391348637191954</v>
+        <v>0.398441</v>
       </c>
       <c r="H6">
-        <v>0.391348637191954</v>
+        <v>0.796882</v>
       </c>
       <c r="I6">
-        <v>0.09811064855147385</v>
+        <v>0.08945363909080989</v>
       </c>
       <c r="J6">
-        <v>0.09811064855147385</v>
+        <v>0.06146862341190577</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.68557816865093</v>
+        <v>3.761096</v>
       </c>
       <c r="N6">
-        <v>3.68557816865093</v>
+        <v>11.283288</v>
       </c>
       <c r="O6">
-        <v>0.09036008828343456</v>
+        <v>0.0791269219569728</v>
       </c>
       <c r="P6">
-        <v>0.09036008828343456</v>
+        <v>0.1016995211970309</v>
       </c>
       <c r="Q6">
-        <v>1.442345993565959</v>
+        <v>1.498574851336</v>
       </c>
       <c r="R6">
-        <v>1.442345993565959</v>
+        <v>8.991449108015999</v>
       </c>
       <c r="S6">
-        <v>0.008865286864656197</v>
+        <v>0.007078191119105725</v>
       </c>
       <c r="T6">
-        <v>0.008865286864656197</v>
+        <v>0.006251329569631424</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.391348637191954</v>
+        <v>0.398441</v>
       </c>
       <c r="H7">
-        <v>0.391348637191954</v>
+        <v>0.796882</v>
       </c>
       <c r="I7">
-        <v>0.09811064855147385</v>
+        <v>0.08945363909080989</v>
       </c>
       <c r="J7">
-        <v>0.09811064855147385</v>
+        <v>0.06146862341190577</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.0514024916745</v>
+        <v>25.151532</v>
       </c>
       <c r="N7">
-        <v>19.0514024916745</v>
+        <v>50.303064</v>
       </c>
       <c r="O7">
-        <v>0.4670872064832874</v>
+        <v>0.5291445125735434</v>
       </c>
       <c r="P7">
-        <v>0.4670872064832874</v>
+        <v>0.453395989142846</v>
       </c>
       <c r="Q7">
-        <v>7.455740401712213</v>
+        <v>10.021401561612</v>
       </c>
       <c r="R7">
-        <v>7.455740401712213</v>
+        <v>40.08560624644799</v>
       </c>
       <c r="S7">
-        <v>0.04582622875817151</v>
+        <v>0.04733390225463627</v>
       </c>
       <c r="T7">
-        <v>0.04582622875817151</v>
+        <v>0.02786962731309012</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.59750112549851</v>
+        <v>4.055721</v>
       </c>
       <c r="H8">
-        <v>3.59750112549851</v>
+        <v>12.167163</v>
       </c>
       <c r="I8">
-        <v>0.9018893514485261</v>
+        <v>0.9105463609091901</v>
       </c>
       <c r="J8">
-        <v>0.9018893514485261</v>
+        <v>0.9385313765880943</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.39043524080262</v>
+        <v>6.4984935</v>
       </c>
       <c r="N8">
-        <v>6.39043524080262</v>
+        <v>12.996987</v>
       </c>
       <c r="O8">
-        <v>0.1566756329956943</v>
+        <v>0.136717006960842</v>
       </c>
       <c r="P8">
-        <v>0.1566756329956943</v>
+        <v>0.1171455833533661</v>
       </c>
       <c r="Q8">
-        <v>22.98959797121277</v>
+        <v>26.3560765563135</v>
       </c>
       <c r="R8">
-        <v>22.98959797121277</v>
+        <v>158.136459337881</v>
       </c>
       <c r="S8">
-        <v>0.141304085030274</v>
+        <v>0.1244871731625911</v>
       </c>
       <c r="T8">
-        <v>0.141304085030274</v>
+        <v>0.10994480560585</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.59750112549851</v>
+        <v>4.055721</v>
       </c>
       <c r="H9">
-        <v>3.59750112549851</v>
+        <v>12.167163</v>
       </c>
       <c r="I9">
-        <v>0.9018893514485261</v>
+        <v>0.9105463609091901</v>
       </c>
       <c r="J9">
-        <v>0.9018893514485261</v>
+        <v>0.9385313765880943</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.58430920724413</v>
+        <v>7.026005</v>
       </c>
       <c r="N9">
-        <v>6.58430920724413</v>
+        <v>21.078015</v>
       </c>
       <c r="O9">
-        <v>0.1614288814473278</v>
+        <v>0.1478149319518302</v>
       </c>
       <c r="P9">
-        <v>0.1614288814473278</v>
+        <v>0.1899822138089391</v>
       </c>
       <c r="Q9">
-        <v>23.68705978369096</v>
+        <v>28.495516024605</v>
       </c>
       <c r="R9">
-        <v>23.68705978369096</v>
+        <v>256.459644221445</v>
       </c>
       <c r="S9">
-        <v>0.1455909891935915</v>
+        <v>0.1345923483767785</v>
       </c>
       <c r="T9">
-        <v>0.1455909891935915</v>
+        <v>0.1783042686533572</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.59750112549851</v>
+        <v>4.055721</v>
       </c>
       <c r="H10">
-        <v>3.59750112549851</v>
+        <v>12.167163</v>
       </c>
       <c r="I10">
-        <v>0.9018893514485261</v>
+        <v>0.9105463609091901</v>
       </c>
       <c r="J10">
-        <v>0.9018893514485261</v>
+        <v>0.9385313765880943</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.0308932923012</v>
+        <v>2.048527</v>
       </c>
       <c r="N10">
-        <v>2.0308932923012</v>
+        <v>6.145581</v>
       </c>
       <c r="O10">
-        <v>0.04979183422223932</v>
+        <v>0.04309744714193724</v>
       </c>
       <c r="P10">
-        <v>0.04979183422223932</v>
+        <v>0.05539188977340388</v>
       </c>
       <c r="Q10">
-        <v>7.306140904820942</v>
+        <v>8.308253972967</v>
       </c>
       <c r="R10">
-        <v>7.306140904820942</v>
+        <v>74.77428575670301</v>
       </c>
       <c r="S10">
-        <v>0.04490672507412795</v>
+        <v>0.03924222365956713</v>
       </c>
       <c r="T10">
-        <v>0.04490672507412795</v>
+        <v>0.05198702656084872</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.59750112549851</v>
+        <v>4.055721</v>
       </c>
       <c r="H11">
-        <v>3.59750112549851</v>
+        <v>12.167163</v>
       </c>
       <c r="I11">
-        <v>0.9018893514485261</v>
+        <v>0.9105463609091901</v>
       </c>
       <c r="J11">
-        <v>0.9018893514485261</v>
+        <v>0.9385313765880943</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.04505941887779</v>
+        <v>3.046790666666667</v>
       </c>
       <c r="N11">
-        <v>3.04505941887779</v>
+        <v>9.140372000000001</v>
       </c>
       <c r="O11">
-        <v>0.07465635656801649</v>
+        <v>0.0640991794148744</v>
       </c>
       <c r="P11">
-        <v>0.07465635656801649</v>
+        <v>0.08238480272441405</v>
       </c>
       <c r="Q11">
-        <v>10.95460468662269</v>
+        <v>12.356932889404</v>
       </c>
       <c r="R11">
-        <v>10.95460468662269</v>
+        <v>111.212396004636</v>
       </c>
       <c r="S11">
-        <v>0.0673317730066383</v>
+        <v>0.05836527455347915</v>
       </c>
       <c r="T11">
-        <v>0.0673317730066383</v>
+        <v>0.0773207223108829</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>26</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.59750112549851</v>
+        <v>4.055721</v>
       </c>
       <c r="H12">
-        <v>3.59750112549851</v>
+        <v>12.167163</v>
       </c>
       <c r="I12">
-        <v>0.9018893514485261</v>
+        <v>0.9105463609091901</v>
       </c>
       <c r="J12">
-        <v>0.9018893514485261</v>
+        <v>0.9385313765880943</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.68557816865093</v>
+        <v>3.761096</v>
       </c>
       <c r="N12">
-        <v>3.68557816865093</v>
+        <v>11.283288</v>
       </c>
       <c r="O12">
-        <v>0.09036008828343456</v>
+        <v>0.0791269219569728</v>
       </c>
       <c r="P12">
-        <v>0.09036008828343456</v>
+        <v>0.1016995211970309</v>
       </c>
       <c r="Q12">
-        <v>13.25887160983446</v>
+        <v>15.253956030216</v>
       </c>
       <c r="R12">
-        <v>13.25887160983446</v>
+        <v>137.285604271944</v>
       </c>
       <c r="S12">
-        <v>0.08149480141877835</v>
+        <v>0.07204873083786707</v>
       </c>
       <c r="T12">
-        <v>0.08149480141877835</v>
+        <v>0.09544819162739952</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.59750112549851</v>
+        <v>4.055721</v>
       </c>
       <c r="H13">
-        <v>3.59750112549851</v>
+        <v>12.167163</v>
       </c>
       <c r="I13">
-        <v>0.9018893514485261</v>
+        <v>0.9105463609091901</v>
       </c>
       <c r="J13">
-        <v>0.9018893514485261</v>
+        <v>0.9385313765880943</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.0514024916745</v>
+        <v>25.151532</v>
       </c>
       <c r="N13">
-        <v>19.0514024916745</v>
+        <v>50.303064</v>
       </c>
       <c r="O13">
-        <v>0.4670872064832874</v>
+        <v>0.5291445125735434</v>
       </c>
       <c r="P13">
-        <v>0.4670872064832874</v>
+        <v>0.453395989142846</v>
       </c>
       <c r="Q13">
-        <v>68.53744190612414</v>
+        <v>102.007596514572</v>
       </c>
       <c r="R13">
-        <v>68.53744190612414</v>
+        <v>612.045579087432</v>
       </c>
       <c r="S13">
-        <v>0.4212609777251158</v>
+        <v>0.4818106103189072</v>
       </c>
       <c r="T13">
-        <v>0.4212609777251158</v>
+        <v>0.4255263618297559</v>
       </c>
     </row>
   </sheetData>
